--- a/data/DMS실습(4)-ANOVA분석(정답).xlsx
+++ b/data/DMS실습(4)-ANOVA분석(정답).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="15680" yWindow="460" windowWidth="17920" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,7 +353,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,7 +408,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>A factory</a:t>
+              <a:t>A Factory</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -461,6 +475,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1시-2시</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2시-3시</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3시-4시</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4시-5시</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5시-6시</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$10:$C$14</c:f>
@@ -513,6 +550,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1시-2시</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2시-3시</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3시-4시</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4시-5시</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5시-6시</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$10:$D$14</c:f>
@@ -565,6 +625,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1시-2시</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2시-3시</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3시-4시</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4시-5시</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5시-6시</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$10:$E$14</c:f>
@@ -600,16 +683,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1869472112"/>
-        <c:axId val="-1869608112"/>
+        <c:axId val="-1297815376"/>
+        <c:axId val="-1297813600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1869472112"/>
+        <c:axId val="-1297815376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -646,7 +730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1869608112"/>
+        <c:crossAx val="-1297813600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1869608112"/>
+        <c:axId val="-1297813600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +758,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -705,7 +788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1869472112"/>
+        <c:crossAx val="-1297815376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +904,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>B factory</a:t>
+              <a:t>B Factory</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1096,11 +1179,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1970857888"/>
-        <c:axId val="-1970377056"/>
+        <c:axId val="-1296649200"/>
+        <c:axId val="-1296646848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1970857888"/>
+        <c:axId val="-1296649200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1970377056"/>
+        <c:crossAx val="-1296646848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1151,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1970377056"/>
+        <c:axId val="-1296646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1970857888"/>
+        <c:crossAx val="-1296649200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,17 +2484,17 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2429,19 +2512,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2886,9 +2969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2916,12 +2997,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3025,12 +3106,12 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -3145,9 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3270,13 +3349,13 @@
       <c r="D12" s="5">
         <v>65</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="13">
         <v>0.36619718309859156</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="13">
         <v>0.7008530791883697</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="14">
         <v>3.8852938346523942</v>
       </c>
     </row>
@@ -3379,9 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3504,13 +3581,13 @@
       <c r="D12" s="5">
         <v>65</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="13">
         <v>130</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <v>7.3735062393814396E-9</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="14">
         <v>3.8852938346523942</v>
       </c>
     </row>
